--- a/王俊杰/5 金属材料力学、热学性能参数测量/数据.xlsx
+++ b/王俊杰/5 金属材料力学、热学性能参数测量/数据.xlsx
@@ -1,31 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\共享文件\Better-Fundamentals-of-Materials-Science\王俊杰\5 金属材料力学、热学性能参数测量\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3646A4B-BF83-45DC-A38E-D00C9EC546B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+  <si>
+    <t>铜棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
+  </si>
+  <si>
+    <t>平均值</t>
+  </si>
+  <si>
+    <t>长度(\unit{\mm})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直径(\unit{\mm})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量(\unit{\g})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x(\unit{\mm})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f(\unit{\Hz})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不锈钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +118,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +406,413 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:O9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="I1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>150.12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>150.1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>150.16</v>
+      </c>
+      <c r="E3" s="1">
+        <v>150.13999999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>150.1</v>
+      </c>
+      <c r="G3" s="2">
+        <f>AVERAGE(B3:F3)</f>
+        <v>150.124</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>149.9</v>
+      </c>
+      <c r="K3" s="1">
+        <v>149.88</v>
+      </c>
+      <c r="L3" s="1">
+        <v>149.9</v>
+      </c>
+      <c r="M3" s="1">
+        <v>149.88</v>
+      </c>
+      <c r="N3" s="1">
+        <v>149.88</v>
+      </c>
+      <c r="O3" s="2">
+        <f>AVERAGE(J3:N3)</f>
+        <v>149.88799999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5.92</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5.88</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5.88</v>
+      </c>
+      <c r="G4" s="2">
+        <f>AVERAGE(B4:F4)</f>
+        <v>5.895999999999999</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5.88</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5.86</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5.88</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5.88</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5.86</v>
+      </c>
+      <c r="O4" s="2">
+        <f>AVERAGE(J4:N4)</f>
+        <v>5.8719999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>33.348999999999997</v>
+      </c>
+      <c r="C5" s="2">
+        <v>33.35</v>
+      </c>
+      <c r="D5" s="2">
+        <v>33.35</v>
+      </c>
+      <c r="E5" s="2">
+        <v>33.35</v>
+      </c>
+      <c r="F5" s="2">
+        <v>33.35</v>
+      </c>
+      <c r="G5" s="3">
+        <f>AVERAGE(B5:F5)</f>
+        <v>33.349800000000002</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="K5" s="2">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="L5" s="2">
+        <v>34.978999999999999</v>
+      </c>
+      <c r="M5" s="2">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="N5" s="2">
+        <v>34.978999999999999</v>
+      </c>
+      <c r="O5" s="3">
+        <f>AVERAGE(J5:N5)</f>
+        <v>34.979599999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="4">
+        <v>10</v>
+      </c>
+      <c r="K8" s="4">
+        <v>20</v>
+      </c>
+      <c r="L8" s="4">
+        <v>25</v>
+      </c>
+      <c r="M8" s="4">
+        <v>45</v>
+      </c>
+      <c r="N8" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1178.9000000000001</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1175</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1172.5999999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1176.7</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1180.0999999999999</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="4">
+        <v>839.9</v>
+      </c>
+      <c r="K9" s="4">
+        <v>836.4</v>
+      </c>
+      <c r="L9" s="4">
+        <v>834.1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>840.3</v>
+      </c>
+      <c r="N9" s="4">
+        <v>844.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I10" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C13" s="4">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1178.9000000000001</v>
+      </c>
+      <c r="F13" s="4">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <v>839.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C14" s="4">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1175</v>
+      </c>
+      <c r="F14" s="4">
+        <v>20</v>
+      </c>
+      <c r="G14" s="4">
+        <v>836.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C15" s="4">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1172.5999999999999</v>
+      </c>
+      <c r="F15" s="4">
+        <v>25</v>
+      </c>
+      <c r="G15" s="4">
+        <v>834.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C16" s="4">
+        <v>45</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1176.7</v>
+      </c>
+      <c r="F16" s="4">
+        <v>45</v>
+      </c>
+      <c r="G16" s="4">
+        <v>840.3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="4">
+        <v>55</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1180.0999999999999</v>
+      </c>
+      <c r="F17" s="4">
+        <v>55</v>
+      </c>
+      <c r="G17" s="4">
+        <v>844.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/王俊杰/5 金属材料力学、热学性能参数测量/数据.xlsx
+++ b/王俊杰/5 金属材料力学、热学性能参数测量/数据.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\共享文件\Better-Fundamentals-of-Materials-Science\王俊杰\5 金属材料力学、热学性能参数测量\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\72992\Documents\GitHub\Better-Fundamentals-of-Materials-Science\王俊杰\5 金属材料力学、热学性能参数测量\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3646A4B-BF83-45DC-A38E-D00C9EC546B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA7B55B-FF20-4856-B204-1C7F341B7BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="迈克尔逊" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>铜棒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +68,38 @@
   </si>
   <si>
     <t>不锈钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬铝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\delta t$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$t$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$N$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,12 +149,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -409,33 +443,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -479,7 +513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -525,7 +559,7 @@
         <v>149.88799999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -571,7 +605,7 @@
         <v>5.8719999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -617,7 +651,7 @@
         <v>34.979599999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -655,7 +689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -693,7 +727,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -731,13 +765,13 @@
         <v>844.2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="I10" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C13" s="4">
         <v>10</v>
       </c>
@@ -751,7 +785,7 @@
         <v>839.9</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C14" s="4">
         <v>20</v>
       </c>
@@ -765,7 +799,7 @@
         <v>836.4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C15" s="4">
         <v>25</v>
       </c>
@@ -779,7 +813,7 @@
         <v>834.1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C16" s="4">
         <v>45</v>
       </c>
@@ -793,7 +827,7 @@
         <v>840.3</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C17" s="4">
         <v>55</v>
       </c>
@@ -815,4 +849,275 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586DA2B7-74B9-471E-9A1B-871860879D46}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>149.9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>149.91999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>149.9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>149.88</v>
+      </c>
+      <c r="F3" s="1">
+        <v>149.91999999999999</v>
+      </c>
+      <c r="G3" s="2">
+        <f>AVERAGE(B3:F3)</f>
+        <v>149.904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>149.86000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>149.84</v>
+      </c>
+      <c r="D4" s="1">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>149.82</v>
+      </c>
+      <c r="F4" s="1">
+        <v>149.82</v>
+      </c>
+      <c r="G4" s="2">
+        <f>AVERAGE(B4:F4)</f>
+        <v>149.82800000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>23.4</v>
+      </c>
+      <c r="E8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>24.5</v>
+      </c>
+      <c r="C9">
+        <f>B9-B8</f>
+        <v>1.1000000000000014</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>27.9</v>
+      </c>
+      <c r="F9">
+        <f>E9-E8</f>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>25.5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C13" si="0">B10-B9</f>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>28.9</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F13" si="1">E10-E9</f>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>26.6</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000014</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>29.8</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.90000000000000213</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>27.8</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1.1999999999999993</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>30.8</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>28.8</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>31.7</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/王俊杰/5 金属材料力学、热学性能参数测量/数据.xlsx
+++ b/王俊杰/5 金属材料力学、热学性能参数测量/数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\72992\Documents\GitHub\Better-Fundamentals-of-Materials-Science\王俊杰\5 金属材料力学、热学性能参数测量\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\共享文件\Better-Fundamentals-of-Materials-Science\王俊杰\5 金属材料力学、热学性能参数测量\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA7B55B-FF20-4856-B204-1C7F341B7BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29729FA-F7B1-4D75-A08F-176701693F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2920" yWindow="2920" windowWidth="19200" windowHeight="9970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>铜棒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -160,6 +160,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,9 +450,9 @@
       <selection activeCell="I2" sqref="I2:O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -469,7 +472,7 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -513,7 +516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -559,7 +562,7 @@
         <v>149.88799999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -605,7 +608,7 @@
         <v>5.8719999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -651,7 +654,7 @@
         <v>34.979599999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -689,7 +692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -727,7 +730,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -765,13 +768,13 @@
         <v>844.2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I10" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C13" s="4">
         <v>10</v>
       </c>
@@ -785,7 +788,7 @@
         <v>839.9</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C14" s="4">
         <v>20</v>
       </c>
@@ -799,7 +802,7 @@
         <v>836.4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C15" s="4">
         <v>25</v>
       </c>
@@ -813,7 +816,7 @@
         <v>834.1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C16" s="4">
         <v>45</v>
       </c>
@@ -827,7 +830,7 @@
         <v>840.3</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="4">
         <v>55</v>
       </c>
@@ -853,15 +856,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586DA2B7-74B9-471E-9A1B-871860879D46}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I4" sqref="I1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -872,7 +875,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -895,7 +898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -919,7 +922,7 @@
         <v>149.904</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -943,7 +946,7 @@
         <v>149.82800000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
@@ -954,8 +957,14 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="J6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -974,8 +983,14 @@
       <c r="G7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="J7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -985,8 +1000,17 @@
       <c r="E8">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>23.4</v>
+      </c>
+      <c r="K8" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1010,8 +1034,17 @@
       <c r="G9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="K9" s="7">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1035,8 +1068,17 @@
       <c r="G10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="K10" s="7">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1060,8 +1102,17 @@
       <c r="G11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="K11" s="7">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1085,8 +1136,17 @@
       <c r="G12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I12">
+        <v>40</v>
+      </c>
+      <c r="J12" s="7">
+        <v>27.8</v>
+      </c>
+      <c r="K12" s="7">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1109,6 +1169,15 @@
       </c>
       <c r="G13">
         <v>10</v>
+      </c>
+      <c r="I13">
+        <v>50</v>
+      </c>
+      <c r="J13" s="7">
+        <v>28.8</v>
+      </c>
+      <c r="K13" s="7">
+        <v>31.7</v>
       </c>
     </row>
   </sheetData>
